--- a/src/test/fixtures/sheet/definition.xlsx
+++ b/src/test/fixtures/sheet/definition.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Projects/ccd-definition-processor/src/test/fixtures/sheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F74CA9-5C77-274B-9D49-C9F377173282}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="3820" yWindow="1940" windowWidth="27640" windowHeight="13980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jurisdiction" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CaseType" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="CaseField" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CaseTypeTab" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="CaseEventToFields" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="CaseEventToComplexTypes" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="State" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="CaseEvent" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="FixedLists" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="ComplexTypes" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="SearchInputFields" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="SearchResultFields" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="WorkBasketResultFields" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="WorkBasketInputFields" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="UserProfile" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="AuthorisationCaseType" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="AuthorisationCaseField" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="AuthorisationCaseState" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
+    <sheet name="CaseRoles" sheetId="20" r:id="rId2"/>
+    <sheet name="CaseType" sheetId="2" r:id="rId3"/>
+    <sheet name="CaseField" sheetId="3" r:id="rId4"/>
+    <sheet name="CaseTypeTab" sheetId="4" r:id="rId5"/>
+    <sheet name="CaseEventToFields" sheetId="5" r:id="rId6"/>
+    <sheet name="CaseEventToComplexTypes" sheetId="6" r:id="rId7"/>
+    <sheet name="State" sheetId="7" r:id="rId8"/>
+    <sheet name="CaseEvent" sheetId="8" r:id="rId9"/>
+    <sheet name="FixedLists" sheetId="9" r:id="rId10"/>
+    <sheet name="ComplexTypes" sheetId="10" r:id="rId11"/>
+    <sheet name="SearchInputFields" sheetId="11" r:id="rId12"/>
+    <sheet name="SearchResultFields" sheetId="12" r:id="rId13"/>
+    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId14"/>
+    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId15"/>
+    <sheet name="UserProfile" sheetId="15" r:id="rId16"/>
+    <sheet name="AuthorisationCaseType" sheetId="16" r:id="rId17"/>
+    <sheet name="AuthorisationCaseField" sheetId="17" r:id="rId18"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="18" r:id="rId19"/>
+    <sheet name="AuthorisationCaseState" sheetId="19" r:id="rId20"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -38,604 +44,611 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="170">
-  <si>
-    <t xml:space="preserve">Jurisdiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrimaryKeyInRed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrimaryAndForeignKey Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ForeignKey Brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start date from which the data will be valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End date until which the data will be valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The identifier which defines the casetype code
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="173">
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>PrimaryKeyInRed</t>
+  </si>
+  <si>
+    <t>PrimaryAndForeignKey Orange</t>
+  </si>
+  <si>
+    <t>ForeignKey Brown</t>
+  </si>
+  <si>
+    <t>Start date from which the data will be valid</t>
+  </si>
+  <si>
+    <t>End date until which the data will be valid</t>
+  </si>
+  <si>
+    <t>The identifier which defines the casetype code
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">The short description to describe the jurisdiction used on UI display
+    <t>The short description to describe the jurisdiction used on UI display
 MaxLength: 30</t>
   </si>
   <si>
-    <t xml:space="preserve">The long description to describe the jurisdiction.
+    <t>The long description to describe the jurisdiction.
 MaxLength: 100</t>
   </si>
   <si>
-    <t xml:space="preserve">LiveFrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LiveTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaseType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The short description to describe the case type used on the UI.
+    <t>LiveFrom</t>
+  </si>
+  <si>
+    <t>LiveTo</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>CaseType</t>
+  </si>
+  <si>
+    <t>The short description to describe the case type used on the UI.
 MaxLength: 30</t>
   </si>
   <si>
-    <t xml:space="preserve">The long description to decribe the case type.
+    <t>The long description to decribe the case type.
 MaxLength: 100</t>
   </si>
   <si>
-    <t xml:space="preserve">The jurisdiction code should match the one defined in 'Jurisdiction' tab
+    <t>The jurisdiction code should match the one defined in 'Jurisdiction' tab
 MaxLength:70</t>
   </si>
   <si>
-    <t xml:space="preserve">The absolute URL to the microservice which lists the documents that the services wants to provide for print. 
+    <t>The absolute URL to the microservice which lists the documents that the services wants to provide for print. 
 MaxLength: &lt;unlimited&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Comma separate timeout (each number is a retry , seconds e.g. 5,10,15 = three retries with increasing timeout time). Max Length: 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is a mandatory field which can define if the data classification of the field
+    <t>Comma separate timeout (each number is a retry , seconds e.g. 5,10,15 = three retries with increasing timeout time). Max Length: 20</t>
+  </si>
+  <si>
+    <t>It is a mandatory field which can define if the data classification of the field
 MustBe: &lt;Public, Private, Retricted&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">JurisdictionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrintableDocumentsUrl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RetriesTimeoutURLPrintEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SecurityClassification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaseField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The code of casetype has to be defined in 'CaseType' tab
+    <t>JurisdictionID</t>
+  </si>
+  <si>
+    <t>PrintableDocumentsUrl</t>
+  </si>
+  <si>
+    <t>RetriesTimeoutURLPrintEvent</t>
+  </si>
+  <si>
+    <t>SecurityClassification</t>
+  </si>
+  <si>
+    <t>CaseField</t>
+  </si>
+  <si>
+    <t>The code of casetype has to be defined in 'CaseType' tab
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">The field ID should match the field attribute name used by the service team in creating the case
+    <t>The field ID should match the field attribute name used by the service team in creating the case
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">The lable that will be used on the UI for the case field. It is possible to add Markdown to the label element. This feature allows to provide html styling (limited) and interpolate the value of another case field. See the feature in details on confluence (Label Markdown and interpolation)
+    <t>The lable that will be used on the UI for the case field. It is possible to add Markdown to the label element. This feature allows to provide html styling (limited) and interpolate the value of another case field. See the feature in details on confluence (Label Markdown and interpolation)
 MaxLength:&lt;unlimited&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The hint text that is present for each field type
+    <t>The hint text that is present for each field type
 MaxLength: &lt;unlimited&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The type of field. This can be a CCD Base type (see confluence) or a ComplexType ID as per the ComplexType tab).  
+    <t>The type of field. This can be a CCD Base type (see confluence) or a ComplexType ID as per the ComplexType tab).  
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">Some FieldTypes require or have an optional addition parameter that can be set (e.g. Collection - the parameter is the collecion of What FieldType ?, FixedList the parameter is the ID from the fixedList tab). See confluence for details
+    <t>Some FieldTypes require or have an optional addition parameter that can be set (e.g. Collection - the parameter is the collecion of What FieldType ?, FixedList the parameter is the ID from the fixedList tab). See confluence for details
 MaxLength: 40</t>
   </si>
   <si>
-    <t xml:space="preserve">The regex that can define the type of data accepted in the fields E.g: alphanumeric etc. This will override the regex, if defined internally for any type.
+    <t>The regex that can define the type of data accepted in the fields E.g: alphanumeric etc. This will override the regex, if defined internally for any type.
 MaxLength: &lt;unlimited&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The minimum that the field Value should support for the FieldType (e.g. for Text its length, for Number it’s a value)
+    <t>The minimum that the field Value should support for the FieldType (e.g. for Text its length, for Number it’s a value)
 MaxLength: &lt;unlimited&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The maximum that the field Value should support for the FieldType (e.g. for Text its length, for Number it’s a value)
+    <t>The maximum that the field Value should support for the FieldType (e.g. for Text its length, for Number it’s a value)
 MaxLength: &lt;unlimited&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">CaseTypeID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HintText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FieldType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FieldTypeParameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegularExpression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaseTypeTab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not used yet - maybe used for roletype type view later
+    <t>CaseTypeID</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>HintText</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>FieldTypeParameter</t>
+  </si>
+  <si>
+    <t>RegularExpression</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>CaseTypeTab</t>
+  </si>
+  <si>
+    <t>Not used yet - maybe used for roletype type view later
 MaxLength: 40</t>
   </si>
   <si>
-    <t xml:space="preserve">Unique Id for tab. MaxLength: 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name to be displayed on the tab
+    <t>Unique Id for tab. MaxLength: 40</t>
+  </si>
+  <si>
+    <t>Name to be displayed on the tab
 MaxLengh: 30</t>
   </si>
   <si>
-    <t xml:space="preserve">Order of Tab on screen - left to right.
+    <t>Order of Tab on screen - left to right.
 PositiveInteger</t>
   </si>
   <si>
-    <t xml:space="preserve">Unique ID for field - must match an ID on the CaseField tab or be a metadata item. 
+    <t>Unique ID for field - must match an ID on the CaseField tab or be a metadata item. 
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">Order of Fields within a tab - top to bottom
+    <t>Order of Fields within a tab - top to bottom
 PositiveInteger</t>
   </si>
   <si>
-    <t xml:space="preserve">Accepted single or multiple conditions in the format &lt;Field A&gt;="Text"OR&lt;Field B&gt;=&lt;Yes/No&gt;
+    <t>Accepted single or multiple conditions in the format &lt;Field A&gt;="Text"OR&lt;Field B&gt;=&lt;Yes/No&gt;
 MaxLength:1000</t>
   </si>
   <si>
-    <t xml:space="preserve">Boolean expression rules for hiding a tab: 
+    <t>Boolean expression rules for hiding a tab: 
 MaxLength:1000</t>
   </si>
   <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TabID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TabLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TabDisplayOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaseFieldID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TabFieldDisplayOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FieldShowCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TabShowCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaseEventToFields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique ID for the event. Not listing an case event means that All Fields are displayed. MaxLength: 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This defines with Fields can be changed / viewed during an case event. MaxLength: 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The order of the fields on the screen.
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>TabID</t>
+  </si>
+  <si>
+    <t>TabLabel</t>
+  </si>
+  <si>
+    <t>TabDisplayOrder</t>
+  </si>
+  <si>
+    <t>CaseFieldID</t>
+  </si>
+  <si>
+    <t>TabFieldDisplayOrder</t>
+  </si>
+  <si>
+    <t>FieldShowCondition</t>
+  </si>
+  <si>
+    <t>TabShowCondition</t>
+  </si>
+  <si>
+    <t>CaseEventToFields</t>
+  </si>
+  <si>
+    <t>Unique ID for the event. Not listing an case event means that All Fields are displayed. MaxLength: 70</t>
+  </si>
+  <si>
+    <t>This defines with Fields can be changed / viewed during an case event. MaxLength: 70</t>
+  </si>
+  <si>
+    <t>The order of the fields on the screen.
 Positive Integer</t>
   </si>
   <si>
-    <t xml:space="preserve">Accepted Values:  for mandatory, readonly and optional data on UI
+    <t>Accepted Values:  for mandatory, readonly and optional data on UI
 MustBe: MANDATORY, READONLY, OPTIONAL</t>
   </si>
   <si>
-    <t xml:space="preserve">This is a string value which defines the Wizard pages' ID
+    <t>This is a string value which defines the Wizard pages' ID
 MaxLength:40</t>
   </si>
   <si>
-    <t xml:space="preserve">This is a string value which defines the Wizard pages' Label
+    <t>This is a string value which defines the Wizard pages' Label
 MaxLength:40</t>
   </si>
   <si>
-    <t xml:space="preserve">The order to display the pages
+    <t>The order to display the pages
 Positive Integer</t>
   </si>
   <si>
-    <t xml:space="preserve">Currently blank 1 or 2.  2 currently will display the yellow review column.
+    <t>Currently blank 1 or 2.  2 currently will display the yellow review column.
 Positive Integer</t>
   </si>
   <si>
-    <t xml:space="preserve">Accepted single or multiple conditions in the format &lt;Field A&gt;="Text"OR&lt;Field B&gt;=&lt;Yes/No&gt;
+    <t>Accepted single or multiple conditions in the format &lt;Field A&gt;="Text"OR&lt;Field B&gt;=&lt;Yes/No&gt;
 MaxLength: 1000</t>
   </si>
   <si>
-    <t xml:space="preserve">Boolean expression rules for hiding a page: MaxLength:1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">States a field should appear on check your answers However these fields will be considered only "ShowSummary" column in CaseEvent tab is set to Y
+    <t>Boolean expression rules for hiding a page: MaxLength:1000</t>
+  </si>
+  <si>
+    <t>States a field should appear on check your answers However these fields will be considered only "ShowSummary" column in CaseEvent tab is set to Y
 CouldBe: &lt;Y,N&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">CaseEventID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PageFieldDisplayOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DisplayContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PageID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PageLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PageDisplayOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PageColumnNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PageShowCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShowSummaryChangeOption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShowSummaryContentOption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EventToComplexTypes</t>
+    <t>CaseEventID</t>
+  </si>
+  <si>
+    <t>PageFieldDisplayOrder</t>
+  </si>
+  <si>
+    <t>DisplayContext</t>
+  </si>
+  <si>
+    <t>PageID</t>
+  </si>
+  <si>
+    <t>PageLabel</t>
+  </si>
+  <si>
+    <t>PageDisplayOrder</t>
+  </si>
+  <si>
+    <t>PageColumnNumber</t>
+  </si>
+  <si>
+    <t>PageShowCondition</t>
+  </si>
+  <si>
+    <t>ShowSummaryChangeOption</t>
+  </si>
+  <si>
+    <t>ShowSummaryContentOption</t>
+  </si>
+  <si>
+    <t>EventToComplexTypes</t>
   </si>
   <si>
     <t xml:space="preserve">
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">MaxLength:70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxLength:200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxLength:300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListElementCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EventElementLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EventHintText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FieldDisplayOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State with ID '*' and Name 'DEFAULT' is a reserved state. The state can be used for events where states do not change.
+    <t>MaxLength:70</t>
+  </si>
+  <si>
+    <t>MaxLength:200</t>
+  </si>
+  <si>
+    <t>MaxLength:300</t>
+  </si>
+  <si>
+    <t>ListElementCode</t>
+  </si>
+  <si>
+    <t>EventElementLabel</t>
+  </si>
+  <si>
+    <t>EventHintText</t>
+  </si>
+  <si>
+    <t>FieldDisplayOrder</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>State with ID '*' and Name 'DEFAULT' is a reserved state. The state can be used for events where states do not change.
 MaxLength:70</t>
   </si>
   <si>
-    <t xml:space="preserve">This is the name of the state as displayed on UI
+    <t>This is the name of the state as displayed on UI
 MaxLength:100</t>
   </si>
   <si>
-    <t xml:space="preserve">This gives longer decription of the case state
+    <t>This gives longer decription of the case state
 Max Length: 100</t>
   </si>
   <si>
-    <t xml:space="preserve">The order of the states on the screen.
+    <t>The order of the states on the screen.
 Positive Integer</t>
   </si>
   <si>
-    <t xml:space="preserve">Optional override of title used in the CaseTabView. Markdown , concat supported
+    <t>Optional override of title used in the CaseTabView. Markdown , concat supported
 MaxLength: 100</t>
   </si>
   <si>
-    <t xml:space="preserve">DisplayOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TitleDisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaseEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique ID for the event
+    <t>DisplayOrder</t>
+  </si>
+  <si>
+    <t>TitleDisplay</t>
+  </si>
+  <si>
+    <t>CaseEvent</t>
+  </si>
+  <si>
+    <t>Unique ID for the event
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">This is the name of the event as displayed on UI Dropdown list - hence limited to 30
+    <t>This is the name of the event as displayed on UI Dropdown list - hence limited to 30
 MaxLength: 30</t>
   </si>
   <si>
-    <t xml:space="preserve">This gives further details of an event of a case
+    <t>This gives further details of an event of a case
 MaxLength:100</t>
   </si>
   <si>
-    <t xml:space="preserve">The display order of displaying the events in the list
+    <t>The display order of displaying the events in the list
 Positive Integer</t>
   </si>
   <si>
-    <t xml:space="preserve">Future Elements not for MVP (what about multiple state) (semicolon ; seprated list).
+    <t>Future Elements not for MVP (what about multiple state) (semicolon ; seprated list).
 If '*' is provided, then precondition will not be validated and will be considered as current state
  MaxLength: &lt;unlimited&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Future Elements not for MVP. 
+    <t>Future Elements not for MVP. 
 If '*' is provided, then the current state will not change and will be same as pre condition state
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">URL to call back to the service for uniqueness. 
+    <t>URL to call back to the service for uniqueness. 
 Max Length: &lt;unlimited&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Comma separate timeout (each number is a retry , seconds e.g. 5,10,15 = three retries with increasing timeout time). 
+    <t>Comma separate timeout (each number is a retry , seconds e.g. 5,10,15 = three retries with increasing timeout time). 
 MaxLength: &lt;unlimited&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Y, N and empty. TheCheck your answer section will be shown on Y (true) and empty(null) values, but not shown on N (false) values. Fields on CaseEventTo Field tab have Y in "ShowSummaryChangeOption" column.
+    <t>Y, N and empty. TheCheck your answer section will be shown on Y (true) and empty(null) values, but not shown on N (false) values. Fields on CaseEventTo Field tab have Y in "ShowSummaryChangeOption" column.
 CouldBe: &lt;Y,N&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Boolean value to say if the enter summary and event description fields are to be shown
+    <t>Boolean value to say if the enter summary and event description fields are to be shown
 CouldBeh: &lt;Y,N&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Boolean value to say if a draft of a create event can be saved
+    <t>Boolean value to say if a draft of a create event can be saved
 CouldBe: &lt;Y,N&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The label of the button on the final event screen - default is Submit
+    <t>The label of the button on the final event screen - default is Submit
 MaxLength: 200</t>
   </si>
   <si>
-    <t xml:space="preserve">PreConditionState(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PostConditionState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CallBackURLAboutToStartEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RetriesTimeoutAboutToStartEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CallBackURLAboutToSubmitEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RetriesTimeoutURLAboutToSubmitEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CallBackURLSubmittedEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RetriesTimeoutURLSubmittedEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShowSummary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShowEventNotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CanSaveDraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EndButtonLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FixedLists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The unique identifier of the Fixed list
+    <t>PreConditionState(s)</t>
+  </si>
+  <si>
+    <t>PostConditionState</t>
+  </si>
+  <si>
+    <t>CallBackURLAboutToStartEvent</t>
+  </si>
+  <si>
+    <t>RetriesTimeoutAboutToStartEvent</t>
+  </si>
+  <si>
+    <t>CallBackURLAboutToSubmitEvent</t>
+  </si>
+  <si>
+    <t>RetriesTimeoutURLAboutToSubmitEvent</t>
+  </si>
+  <si>
+    <t>CallBackURLSubmittedEvent</t>
+  </si>
+  <si>
+    <t>RetriesTimeoutURLSubmittedEvent</t>
+  </si>
+  <si>
+    <t>ShowSummary</t>
+  </si>
+  <si>
+    <t>ShowEventNotes</t>
+  </si>
+  <si>
+    <t>CanSaveDraft</t>
+  </si>
+  <si>
+    <t>EndButtonLabel</t>
+  </si>
+  <si>
+    <t>FixedLists</t>
+  </si>
+  <si>
+    <t>The unique identifier of the Fixed list
 MaxLength: 40</t>
   </si>
   <si>
-    <t xml:space="preserve">The unque ID of an element in the list (ID)
+    <t>The unque ID of an element in the list (ID)
 MaxLength: 40</t>
   </si>
   <si>
-    <t xml:space="preserve">The Display name for the list item
+    <t>The Display name for the list item
 MaxLength: 250</t>
   </si>
   <si>
-    <t xml:space="preserve">ListElement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ComplexTypes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ComplexType ID should match the field attribute name on the CaseField Tab
+    <t>ListElement</t>
+  </si>
+  <si>
+    <t>ComplexTypes</t>
+  </si>
+  <si>
+    <t>The ComplexType ID should match the field attribute name on the CaseField Tab
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">The complex type element (field) ID (ListElementId) should match the field attribute name used by the service team in creating the case
+    <t>The complex type element (field) ID (ListElementId) should match the field attribute name used by the service team in creating the case
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">The lable that will be used on the UI for the case field. It is possible to add Markdown to the label element. This feature allows to provide html styling (limited) and interpolate the value of another case field. See the feature in details on confluence (Label Markdown and interpolation)
+    <t>The lable that will be used on the UI for the case field. It is possible to add Markdown to the label element. This feature allows to provide html styling (limited) and interpolate the value of another case field. See the feature in details on confluence (Label Markdown and interpolation)
 MaxLength:200</t>
   </si>
   <si>
-    <t xml:space="preserve">Within a complex type any field can be hidden or shown based on another field's values in the same level.
+    <t>Within a complex type any field can be hidden or shown based on another field's values in the same level.
 Currently only single boolean or string conditions are supported. Eg: country="Italy" or country startWith: "Uni"
 MaxLength: 1000</t>
   </si>
   <si>
-    <t xml:space="preserve">The hint text that is present for each field type
+    <t>The hint text that is present for each field type
 MaxLength: &lt;unlmited&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">ElementLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SearchInputFields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fields that can be searched on. MaxLength: 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label next to search field on UI.
+    <t>ElementLabel</t>
+  </si>
+  <si>
+    <t>SearchInputFields</t>
+  </si>
+  <si>
+    <t>Fields that can be searched on. MaxLength: 70</t>
+  </si>
+  <si>
+    <t>Label next to search field on UI.
 MaxLength: 200</t>
   </si>
   <si>
-    <t xml:space="preserve">Order of fields on UI 
+    <t>Order of fields on UI 
 Positive Integer</t>
   </si>
   <si>
-    <t xml:space="preserve">SearchResultFields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fields to be displayed in results list. MaxLength: 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name on the results column.for the field
+    <t>SearchResultFields</t>
+  </si>
+  <si>
+    <t>Fields to be displayed in results list. MaxLength: 70</t>
+  </si>
+  <si>
+    <t>Name on the results column.for the field
 MaxLength: 200</t>
   </si>
   <si>
-    <t xml:space="preserve">Order the columns are displayed.
+    <t>Order the columns are displayed.
 Positive Integer</t>
   </si>
   <si>
-    <t xml:space="preserve">WorkBasketResultFields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WorkBasketInputFields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserProfile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must match ID from Jurisdiction Tab
+    <t>WorkBasketResultFields</t>
+  </si>
+  <si>
+    <t>WorkBasketInputFields</t>
+  </si>
+  <si>
+    <t>UserProfile</t>
+  </si>
+  <si>
+    <t>Must match ID from Jurisdiction Tab
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">Must match ID from CaseType Tab
+    <t>Must match ID from CaseType Tab
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">Must match ID from State Tab
+    <t>Must match ID from State Tab
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">UserIDAMId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WorkBasketDefaultJurisdiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WorkBasketDefaultCaseType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WorkBasketDefaultState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AuthorisationCaseType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must match ID in 'CaseType' tab
+    <t>UserIDAMId</t>
+  </si>
+  <si>
+    <t>WorkBasketDefaultJurisdiction</t>
+  </si>
+  <si>
+    <t>WorkBasketDefaultCaseType</t>
+  </si>
+  <si>
+    <t>WorkBasketDefaultState</t>
+  </si>
+  <si>
+    <t>AuthorisationCaseType</t>
+  </si>
+  <si>
+    <t>Must match ID in 'CaseType' tab
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">Must match ID role.  If a role doesn’t have a Row below that mean no access to.
+    <t>Must match ID role.  If a role doesn’t have a Row below that mean no access to.
 MaxLength: 100.</t>
   </si>
   <si>
-    <t xml:space="preserve">C - Create, R - Read, U - Update, D - Delete
+    <t>C - Create, R - Read, U - Update, D - Delete
 MustBe1OrManyOf: &lt;C,R,U,D&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">UserRole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AuthorisationCaseField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must match ID on 'CaseType' tab
+    <t>UserRole</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>AuthorisationCaseField</t>
+  </si>
+  <si>
+    <t>Must match ID on 'CaseType' tab
 MaxLength: 70</t>
   </si>
   <si>
-    <t xml:space="preserve">Must match ID on CaseField tab.
+    <t>Must match ID on CaseField tab.
 MaxLength: 40</t>
   </si>
   <si>
-    <t xml:space="preserve">AuthorisationCaseEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must match ID on Event tabe.
+    <t>AuthorisationCaseEvent</t>
+  </si>
+  <si>
+    <t>Must match ID on Event tabe.
 MaxLength: 40</t>
   </si>
   <si>
-    <t xml:space="preserve">AuthorisationCaseState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muust match an ID on State tab.
+    <t>AuthorisationCaseState</t>
+  </si>
+  <si>
+    <t>Muust match an ID on State tab.
 MaxLength: 40</t>
   </si>
   <si>
-    <t xml:space="preserve">CaseStateID</t>
+    <t>CaseStateID</t>
+  </si>
+  <si>
+    <t>CaseRoles</t>
+  </si>
+  <si>
+    <t>MaxLength: 40</t>
+  </si>
+  <si>
+    <t>MaxLength:128</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY;@"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -644,22 +657,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -693,14 +691,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -708,14 +706,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -723,7 +721,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -731,7 +729,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF984807"/>
       <name val="Arial"/>
@@ -739,7 +737,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFC000"/>
       <name val="Arial"/>
@@ -747,7 +745,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -775,7 +773,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -783,7 +781,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
@@ -805,12 +803,71 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF6600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF984807"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF6600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -822,7 +879,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -830,270 +887,109 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="65">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="56">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1152,29 +1048,337 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1393,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="127" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="127" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1206,7 +1410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1223,52 +1427,113 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>42906</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>43301</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>131</v>
       </c>
@@ -1291,7 +1556,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1374,134 +1639,42 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-    </row>
-    <row r="2" customFormat="false" ht="113" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="113" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:6" ht="113" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1512,16 +1685,16 @@
         <v>28</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -1542,36 +1715,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1585,7 +1750,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="113" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="113" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1605,7 +1770,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -1626,50 +1791,42 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-    </row>
-    <row r="2" customFormat="false" ht="113" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="113" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1680,16 +1837,16 @@
         <v>28</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -1710,118 +1867,104 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6" ht="113" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>155</v>
+      <c r="C3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1833,72 +1976,69 @@
         <v>3</v>
       </c>
       <c r="E1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="127" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>161</v>
+      <c r="C3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
-        <v>162</v>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1909,10 +2049,9 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" customFormat="false" ht="127" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="127" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1920,69 +2059,55 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="9" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>165</v>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>162</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1993,10 +2118,10 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="127" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:6" ht="127" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2004,10 +2129,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>158</v>
@@ -2016,71 +2141,63 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="20" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="127" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="127" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2088,10 +2205,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>168</v>
+        <v>157</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>158</v>
@@ -2100,7 +2217,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2111,7 +2228,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>160</v>
@@ -2121,34 +2238,201 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61572A15-5579-4D41-B3D7-2421784EAE6E}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="127" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -2167,7 +2451,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="197" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="211" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="43" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -2226,34 +2510,26 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -2275,7 +2551,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2313,7 +2589,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2352,34 +2628,26 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -2400,7 +2668,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="183" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="183" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2435,7 +2703,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -2471,34 +2739,26 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -2523,7 +2783,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="253" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" ht="253" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2570,7 +2830,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -2618,45 +2878,37 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:X3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="19.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="22" width="30.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="12.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="22" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="22" width="14.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="22" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="22" width="15.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="22" width="6.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="14" style="23" width="6.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="24" width="6.41"/>
+    <col min="1" max="1" width="19.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="22" customWidth="1"/>
+    <col min="5" max="6" width="30.1640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="16" style="22" customWidth="1"/>
+    <col min="12" max="13" width="6.33203125" style="22" customWidth="1"/>
+    <col min="14" max="1021" width="6.33203125" style="23" customWidth="1"/>
+    <col min="1022" max="1025" width="6.33203125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>84</v>
       </c>
@@ -2670,7 +2922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="33" customFormat="true" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:24" s="33" customFormat="1" ht="112" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
@@ -2718,7 +2970,7 @@
       <c r="W2" s="32"/>
       <c r="X2" s="32"/>
     </row>
-    <row r="3" s="23" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:24" s="23" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
@@ -2754,34 +3006,30 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
@@ -2799,7 +3047,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="211" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="225" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2825,7 +3073,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -2852,34 +3100,26 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
@@ -2909,7 +3149,7 @@
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="320" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:20" ht="333" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +3211,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -3034,89 +3274,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.49"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/test/fixtures/sheet/definition.xlsx
+++ b/src/test/fixtures/sheet/definition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Projects/ccd-definition-processor/src/test/fixtures/sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markry/workspace/hmcts/ccd-definition-processor/src/test/fixtures/sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F74CA9-5C77-274B-9D49-C9F377173282}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4AFDBB-2518-1B4A-AE55-15474673A915}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="1940" windowWidth="27640" windowHeight="13980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="1940" windowWidth="27640" windowHeight="13980" tabRatio="500" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="ComplexTypes" sheetId="10" r:id="rId11"/>
     <sheet name="SearchInputFields" sheetId="11" r:id="rId12"/>
     <sheet name="SearchResultFields" sheetId="12" r:id="rId13"/>
-    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId14"/>
-    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId15"/>
-    <sheet name="UserProfile" sheetId="15" r:id="rId16"/>
-    <sheet name="AuthorisationCaseType" sheetId="16" r:id="rId17"/>
-    <sheet name="AuthorisationCaseField" sheetId="17" r:id="rId18"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="18" r:id="rId19"/>
-    <sheet name="AuthorisationCaseState" sheetId="19" r:id="rId20"/>
+    <sheet name="SearchAlias" sheetId="21" r:id="rId14"/>
+    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId15"/>
+    <sheet name="WorkBasketInputFields" sheetId="14" r:id="rId16"/>
+    <sheet name="UserProfile" sheetId="15" r:id="rId17"/>
+    <sheet name="AuthorisationCaseType" sheetId="16" r:id="rId18"/>
+    <sheet name="AuthorisationCaseField" sheetId="17" r:id="rId19"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="18" r:id="rId20"/>
+    <sheet name="AuthorisationCaseState" sheetId="19" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="177">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -638,6 +639,18 @@
   </si>
   <si>
     <t>MaxLength:128</t>
+  </si>
+  <si>
+    <t>SearchAlias</t>
+  </si>
+  <si>
+    <t>Unique alias id for a case field of a case type</t>
+  </si>
+  <si>
+    <t>This is just the CaseField ID for top level fields, or object notation pointing to a complex type field e.g. applicantAddress.AddressLine1</t>
+  </si>
+  <si>
+    <t>SearchAliasID</t>
   </si>
 </sst>
 </file>
@@ -1797,6 +1810,66 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E924DBEA-AE14-AF45-AB43-4428B6C060F3}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="113" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1872,7 +1945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1948,7 +2021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2022,7 +2095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2091,7 +2164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2167,7 +2240,106 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61572A15-5579-4D41-B3D7-2421784EAE6E}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2243,106 +2415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61572A15-5579-4D41-B3D7-2421784EAE6E}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>

--- a/src/test/fixtures/sheet/definition.xlsx
+++ b/src/test/fixtures/sheet/definition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markry/workspace/hmcts/ccd-definition-processor/src/test/fixtures/sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesne@kainos.com/Documents/HMCTS/ccd-definition-processor/src/test/fixtures/sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4AFDBB-2518-1B4A-AE55-15474673A915}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC27219-731C-6D47-AF58-B0F613A855E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1940" windowWidth="27640" windowHeight="13980" tabRatio="500" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="1940" windowWidth="27640" windowHeight="13980" tabRatio="500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="178">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>SearchAliasID</t>
+  </si>
+  <si>
+    <t>Numbered order of fixed list items</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1477,7 +1480,7 @@
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>126</v>
       </c>
@@ -1492,7 +1495,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1508,8 +1511,11 @@
       <c r="E2" s="13" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1524,6 +1530,9 @@
       </c>
       <c r="E3" s="9" t="s">
         <v>130</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E924DBEA-AE14-AF45-AB43-4428B6C060F3}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/fixtures/sheet/definition.xlsx
+++ b/src/test/fixtures/sheet/definition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesne@kainos.com/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesne@kainos.com/Documents/HMCTS/ccd-definition-processor/src/test/fixtures/sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC556B4-1D3D-8E44-8DB0-034F6464821C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F867B-F566-AC4E-BF82-F99B6C5A403B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28200" yWindow="1880" windowWidth="27640" windowHeight="13980" tabRatio="500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29760" yWindow="1880" windowWidth="29200" windowHeight="13980" tabRatio="500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="178">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>SearchAliasID</t>
+  </si>
+  <si>
+    <t>The display order of list items. Positive Integers e.g 1, 2, 3</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1471,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1507,6 +1510,9 @@
       </c>
       <c r="E2" s="13" t="s">
         <v>129</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">

--- a/src/test/fixtures/sheet/definition.xlsx
+++ b/src/test/fixtures/sheet/definition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markry/workspace/hmcts/ccd-definition-processor/src/test/fixtures/sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesne@kainos.com/Documents/HMCTS/ccd-definition-processor/src/test/fixtures/sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4AFDBB-2518-1B4A-AE55-15474673A915}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F867B-F566-AC4E-BF82-F99B6C5A403B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1940" windowWidth="27640" windowHeight="13980" tabRatio="500" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29760" yWindow="1880" windowWidth="29200" windowHeight="13980" tabRatio="500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="178">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>SearchAliasID</t>
+  </si>
+  <si>
+    <t>The display order of list items. Positive Integers e.g 1, 2, 3</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1477,7 +1480,7 @@
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>126</v>
       </c>
@@ -1492,7 +1495,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1508,8 +1511,11 @@
       <c r="E2" s="13" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1524,6 +1530,9 @@
       </c>
       <c r="E3" s="9" t="s">
         <v>130</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E924DBEA-AE14-AF45-AB43-4428B6C060F3}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/fixtures/sheet/definition.xlsx
+++ b/src/test/fixtures/sheet/definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesne@kainos.com/Documents/HMCTS/ccd-definition-processor/src/test/fixtures/sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Dev/ccd-definition-processor/src/test/fixtures/sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F867B-F566-AC4E-BF82-F99B6C5A403B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7EAC37-09AA-C946-B297-358C69916C86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29760" yWindow="1880" windowWidth="29200" windowHeight="13980" tabRatio="500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="179">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -654,6 +654,9 @@
   </si>
   <si>
     <t>The display order of list items. Positive Integers e.g 1, 2, 3</t>
+  </si>
+  <si>
+    <t>MaxLength: 100. No entry for role means no role restriction for that tab. Enter role on a single row per tab</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2717,19 +2720,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="1025" width="10.5" customWidth="1"/>
+    <col min="3" max="1026" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -2749,8 +2752,9 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="183" x14ac:dyDescent="0.2">
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="183" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2776,16 +2780,19 @@
         <v>50</v>
       </c>
       <c r="I2" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -2810,13 +2817,16 @@
       <c r="H3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>61</v>
       </c>
     </row>

--- a/src/test/fixtures/sheet/definition.xlsx
+++ b/src/test/fixtures/sheet/definition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="185">
   <si>
     <t xml:space="preserve">Jurisdiction</t>
   </si>
@@ -87,10 +87,16 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
+    <t xml:space="preserve">Shuttered</t>
+  </si>
+  <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
     <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">CaseRoles</t>
@@ -915,7 +921,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -961,6 +967,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1234,10 +1244,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="P2:Q3 E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1278,7 +1288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1293,6 +1303,9 @@
       </c>
       <c r="E3" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,10 +1319,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +1347,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="P2:Q3 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1342,7 +1358,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1362,17 +1378,17 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>139</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,13 +1402,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1430,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1425,7 +1441,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1453,38 +1469,38 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>144</v>
       </c>
+      <c r="D2" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="H2" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>26</v>
+        <v>147</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,38 +1510,38 @@
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>98</v>
+      <c r="D3" s="44" t="s">
+        <v>100</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1563,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1558,19 +1574,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" customFormat="false" ht="113" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
@@ -1580,16 +1596,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,17 +1615,17 @@
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>62</v>
+      <c r="C3" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1647,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1642,7 +1658,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1664,16 +1680,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,17 +1699,17 @@
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>62</v>
+      <c r="C3" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1715,7 +1731,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="P2:Q3 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1728,41 +1744,41 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="113" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="48"/>
+      <c r="A3" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="49"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
@@ -1785,7 +1801,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1796,7 +1812,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1818,16 +1834,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,17 +1853,17 @@
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>62</v>
+      <c r="C3" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1885,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1879,20 +1895,20 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" customFormat="false" ht="113" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
@@ -1902,16 +1918,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,17 +1937,17 @@
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>62</v>
+      <c r="C3" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1969,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1964,7 +1980,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1987,13 +2003,13 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,16 +2020,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>169</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2051,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2046,7 +2062,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2067,13 +2083,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,14 +2099,14 @@
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>63</v>
+      <c r="C3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2128,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2122,8 +2138,8 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53" t="s">
-        <v>175</v>
+      <c r="A1" s="54" t="s">
+        <v>177</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2134,8 +2150,8 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" customFormat="false" ht="127" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
@@ -2145,36 +2161,36 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>176</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2212,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="P2:Q3 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2208,10 +2224,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -2222,17 +2238,17 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>18</v>
+      <c r="A2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2242,10 +2258,10 @@
       <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -2274,7 +2290,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2285,7 +2301,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2307,16 +2323,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,17 +2342,17 @@
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>63</v>
+      <c r="C3" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>65</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2358,7 +2374,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2369,15 +2385,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6"/>
@@ -2391,16 +2407,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>183</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,17 +2426,17 @@
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>63</v>
+      <c r="C3" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>65</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2458,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2452,8 +2468,8 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>20</v>
+      <c r="A1" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2480,52 +2496,52 @@
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
+      <c r="F2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="43" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>30</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2563,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2558,7 +2574,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2586,34 +2602,34 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>26</v>
+      <c r="H2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,35 +2639,35 @@
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>19</v>
+      <c r="C3" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +2689,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="1" sqref="P2:Q3 I4"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2684,7 +2700,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="3" t="s">
@@ -2712,34 +2728,34 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="G2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="H2" s="24" t="s">
         <v>55</v>
       </c>
+      <c r="I2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="K2" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,35 +2765,35 @@
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>19</v>
+      <c r="C3" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="15" t="s">
         <v>63</v>
       </c>
+      <c r="H3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="J3" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2798,8 +2814,8 @@
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2:Q3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2810,7 +2826,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2841,49 +2857,49 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,50 +2909,50 @@
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>62</v>
+      <c r="C3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>88</v>
+        <v>67</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2958,121 +2974,121 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="P2:Q3 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="26" width="30.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="26" width="12.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="26" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="26" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="26" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="26" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="26" width="6.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="14" style="27" width="6.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="28" width="6.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="27" width="30.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="12.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="27" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="27" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="27" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="27" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="27" width="6.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="14" style="28" width="6.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="29" width="6.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="37" customFormat="true" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+    <row r="2" s="38" customFormat="true" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="D2" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-    </row>
-    <row r="3" s="27" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
+      <c r="G2" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+    </row>
+    <row r="3" s="28" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="G3" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>65</v>
+      <c r="H3" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3094,7 +3110,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3105,7 +3121,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3129,22 +3145,22 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,8 +3170,8 @@
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>19</v>
+      <c r="C3" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>11</v>
@@ -3167,10 +3183,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3208,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="P2:Q3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3203,7 +3219,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3219,12 +3235,12 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -3239,58 +3255,58 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>26</v>
+        <v>119</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3300,8 +3316,8 @@
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>19</v>
+      <c r="C3" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>11</v>
@@ -3313,46 +3329,46 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="I3" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="J3" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="K3" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="L3" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="M3" s="43" t="s">
         <v>130</v>
       </c>
+      <c r="N3" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>132</v>
+      </c>
       <c r="P3" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="S3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="R3" s="20" t="s">
         <v>134</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
